--- a/biology/Zoologie/Cnemaspis_anaikattiensis/Cnemaspis_anaikattiensis.xlsx
+++ b/biology/Zoologie/Cnemaspis_anaikattiensis/Cnemaspis_anaikattiensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cnemaspis anaikattiensis est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cnemaspis anaikattiensis est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Tamil Nadu en Inde[1]. Elle se rencontre dans les monts Anaikatti dans les Ghâts occidentaux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Tamil Nadu en Inde. Elle se rencontre dans les monts Anaikatti dans les Ghâts occidentaux.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cnemaspis anaikattiensis[2] mesure environ 120 mm dont la moitié pour la queue. Son dos et sa tête sont bruns avec des taches noires. Sa face ventrale est blanc grisâtre.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cnemaspis anaikattiensis mesure environ 120 mm dont la moitié pour la queue. Son dos et sa tête sont bruns avec des taches noires. Sa face ventrale est blanc grisâtre.
 Il est diurne et insectivore.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de anaikatti et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, les monts Anaikatti.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mukherjee, Bhupathy &amp; Nixon, 2005 : A new species of day gecko (Squamata, Gekkonidae, Cnemaspis) from the Anaikatti Hills, Western Ghats, Tamil Nadu, India. Current Science, vol. 89, n. 8, p. 1326-1328 (texte original).</t>
         </is>
